--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B27AB28D-5DF6-48EE-817D-0855AB6700BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14485D29-531A-4F34-891F-0BC954D5E626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="menu" sheetId="1" r:id="rId1"/>
+    <sheet name="descripciones" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1356" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="463">
   <si>
     <t>Local</t>
   </si>
@@ -1399,6 +1399,30 @@
   </si>
   <si>
     <t>Tragos</t>
+  </si>
+  <si>
+    <t>categoria</t>
+  </si>
+  <si>
+    <t>subcategoria</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>asd</t>
+  </si>
+  <si>
+    <t>dasddasda</t>
+  </si>
+  <si>
+    <t>asdas</t>
+  </si>
+  <si>
+    <t>asdasd</t>
+  </si>
+  <si>
+    <t>asdadasd</t>
   </si>
 </sst>
 </file>
@@ -1769,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="B123" sqref="B123:C123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7220,36 +7244,83 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC1E6FD-6974-4B7F-90CE-53F101295DEF}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C30" sqref="C30"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="101" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="101" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>1</v>
+        <v>455</v>
       </c>
       <c r="B1" t="s">
-        <v>2</v>
+        <v>456</v>
       </c>
       <c r="C1" t="s">
-        <v>3</v>
-      </c>
-      <c r="D1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" t="s">
-        <v>5</v>
+        <v>457</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C2" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>355</v>
+      </c>
+      <c r="B3" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>355</v>
+      </c>
+      <c r="B4" t="s">
+        <v>408</v>
+      </c>
+      <c r="C4" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>454</v>
+      </c>
+      <c r="B5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B6" t="s">
+        <v>453</v>
+      </c>
+      <c r="C6" t="s">
+        <v>462</v>
       </c>
     </row>
   </sheetData>

--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14485D29-531A-4F34-891F-0BC954D5E626}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413C7C2-6BEF-4CFB-B016-D13A5AD7699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -1401,12 +1401,6 @@
     <t>Tragos</t>
   </si>
   <si>
-    <t>categoria</t>
-  </si>
-  <si>
-    <t>subcategoria</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -1423,6 +1417,12 @@
   </si>
   <si>
     <t>asdadasd</t>
+  </si>
+  <si>
+    <t>Categoria</t>
+  </si>
+  <si>
+    <t>Subcategoria</t>
   </si>
 </sst>
 </file>
@@ -1793,8 +1793,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="B123" sqref="B123:C123"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C37" sqref="C37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7246,8 +7246,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC1E6FD-6974-4B7F-90CE-53F101295DEF}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7259,13 +7259,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B1" t="s">
+        <v>462</v>
+      </c>
+      <c r="C1" t="s">
         <v>455</v>
-      </c>
-      <c r="B1" t="s">
-        <v>456</v>
-      </c>
-      <c r="C1" t="s">
-        <v>457</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -7276,7 +7276,7 @@
         <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,7 +7298,7 @@
         <v>408</v>
       </c>
       <c r="C4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
         <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
     </row>
   </sheetData>

--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4413C7C2-6BEF-4CFB-B016-D13A5AD7699B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7C918-85E2-4003-9266-2CF44A913F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1404,9 +1404,6 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>asd</t>
-  </si>
-  <si>
     <t>dasddasda</t>
   </si>
   <si>
@@ -1423,6 +1420,9 @@
   </si>
   <si>
     <t>Subcategoria</t>
+  </si>
+  <si>
+    <t>LAS MAS RICARDAS</t>
   </si>
 </sst>
 </file>
@@ -7247,7 +7247,7 @@
   <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7259,10 +7259,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>460</v>
+      </c>
+      <c r="B1" t="s">
         <v>461</v>
-      </c>
-      <c r="B1" t="s">
-        <v>462</v>
       </c>
       <c r="C1" t="s">
         <v>455</v>
@@ -7276,7 +7276,7 @@
         <v>356</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>462</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -7287,7 +7287,7 @@
         <v>386</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
@@ -7298,7 +7298,7 @@
         <v>408</v>
       </c>
       <c r="C4" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
@@ -7309,7 +7309,7 @@
         <v>113</v>
       </c>
       <c r="C5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
@@ -7320,7 +7320,7 @@
         <v>453</v>
       </c>
       <c r="C6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
   </sheetData>

--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F7C918-85E2-4003-9266-2CF44A913F8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814B6E0-A41A-47D3-B034-6108F1DB12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1369" uniqueCount="463">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="460">
   <si>
     <t>Local</t>
   </si>
@@ -1404,25 +1404,16 @@
     <t>Descripcion</t>
   </si>
   <si>
-    <t>dasddasda</t>
-  </si>
-  <si>
-    <t>asdas</t>
-  </si>
-  <si>
-    <t>asdasd</t>
-  </si>
-  <si>
-    <t>asdadasd</t>
-  </si>
-  <si>
     <t>Categoria</t>
   </si>
   <si>
     <t>Subcategoria</t>
   </si>
   <si>
-    <t>LAS MAS RICARDAS</t>
+    <t>Elegí el Gin que mas te guste</t>
+  </si>
+  <si>
+    <t>Sumale el precio de la gintonería elegida</t>
   </si>
 </sst>
 </file>
@@ -1793,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C37" sqref="C37"/>
+    <sheetView topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C140" sqref="C140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3974,7 +3965,7 @@
         <v>306</v>
       </c>
       <c r="F115">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3994,7 +3985,7 @@
         <v>306</v>
       </c>
       <c r="F116">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -4014,7 +4005,7 @@
         <v>306</v>
       </c>
       <c r="F117">
-        <v>6000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4034,7 +4025,7 @@
         <v>306</v>
       </c>
       <c r="F118">
-        <v>6500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4054,7 +4045,7 @@
         <v>306</v>
       </c>
       <c r="F119">
-        <v>6500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4074,7 +4065,7 @@
         <v>306</v>
       </c>
       <c r="F120">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4094,7 +4085,7 @@
         <v>306</v>
       </c>
       <c r="F121">
-        <v>7500</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4114,7 +4105,7 @@
         <v>306</v>
       </c>
       <c r="F122">
-        <v>8000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -7244,10 +7235,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC1E6FD-6974-4B7F-90CE-53F101295DEF}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7259,10 +7250,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="B1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="C1" t="s">
         <v>455</v>
@@ -7270,56 +7261,23 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="B2" t="s">
-        <v>356</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>355</v>
+        <v>454</v>
       </c>
       <c r="B3" t="s">
-        <v>386</v>
+        <v>453</v>
       </c>
       <c r="C3" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>355</v>
-      </c>
-      <c r="B4" t="s">
-        <v>408</v>
-      </c>
-      <c r="C4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>454</v>
-      </c>
-      <c r="B5" t="s">
-        <v>113</v>
-      </c>
-      <c r="C5" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B6" t="s">
-        <v>453</v>
-      </c>
-      <c r="C6" t="s">
         <v>459</v>
       </c>
     </row>

--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0814B6E0-A41A-47D3-B034-6108F1DB12C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D90C0-3368-400A-BF3F-57EED87BE8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="menu" sheetId="1" r:id="rId1"/>
@@ -1784,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C140" sqref="C140"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="C130" sqref="C130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7237,8 +7237,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AC1E6FD-6974-4B7F-90CE-53F101295DEF}">
   <dimension ref="A1:C3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{326D90C0-3368-400A-BF3F-57EED87BE8F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909EBA9-820F-4597-AE94-E552F646EE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="460">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="462">
   <si>
     <t>Local</t>
   </si>
@@ -1386,15 +1386,9 @@
     <t>con queso, lechuga y tomate</t>
   </si>
   <si>
-    <t>Jugos Licuados</t>
-  </si>
-  <si>
     <t>Pescados Mariscos</t>
   </si>
   <si>
-    <t>Tragos Autor</t>
-  </si>
-  <si>
     <t>Tragos c/Gin</t>
   </si>
   <si>
@@ -1414,6 +1408,18 @@
   </si>
   <si>
     <t>Sumale el precio de la gintonería elegida</t>
+  </si>
+  <si>
+    <t>Bar</t>
+  </si>
+  <si>
+    <t>Tragos con Gin</t>
+  </si>
+  <si>
+    <t>Tragos de Autor</t>
+  </si>
+  <si>
+    <t>Jugos y Licuados</t>
   </si>
 </sst>
 </file>
@@ -1784,8 +1790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="C130" sqref="C130"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2433,7 +2439,7 @@
         <v>355</v>
       </c>
       <c r="C35" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D35" t="s">
         <v>397</v>
@@ -2451,7 +2457,7 @@
         <v>355</v>
       </c>
       <c r="C36" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D36" t="s">
         <v>399</v>
@@ -2471,7 +2477,7 @@
         <v>355</v>
       </c>
       <c r="C37" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -2488,7 +2494,7 @@
         <v>355</v>
       </c>
       <c r="C38" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="D38" t="s">
         <v>400</v>
@@ -3713,7 +3719,7 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C103" t="s">
         <v>89</v>
@@ -3733,7 +3739,7 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C104" t="s">
         <v>89</v>
@@ -3753,7 +3759,7 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
@@ -3773,7 +3779,7 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C106" t="s">
         <v>89</v>
@@ -3793,7 +3799,7 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C107" t="s">
         <v>89</v>
@@ -3813,7 +3819,7 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C108" t="s">
         <v>89</v>
@@ -3833,7 +3839,7 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C109" t="s">
         <v>89</v>
@@ -3853,7 +3859,7 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C110" t="s">
         <v>89</v>
@@ -3873,7 +3879,7 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C111" t="s">
         <v>89</v>
@@ -3893,7 +3899,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C112" t="s">
         <v>89</v>
@@ -3913,7 +3919,7 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C113" t="s">
         <v>89</v>
@@ -3933,7 +3939,7 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C114" t="s">
         <v>89</v>
@@ -3953,7 +3959,7 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
@@ -3965,7 +3971,7 @@
         <v>306</v>
       </c>
       <c r="F115">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3973,7 +3979,7 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C116" t="s">
         <v>113</v>
@@ -3985,7 +3991,7 @@
         <v>306</v>
       </c>
       <c r="F116">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3993,7 +3999,7 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C117" t="s">
         <v>113</v>
@@ -4005,7 +4011,7 @@
         <v>306</v>
       </c>
       <c r="F117">
-        <v>0</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -4013,7 +4019,7 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C118" t="s">
         <v>113</v>
@@ -4025,7 +4031,7 @@
         <v>306</v>
       </c>
       <c r="F118">
-        <v>500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -4033,7 +4039,7 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C119" t="s">
         <v>113</v>
@@ -4045,7 +4051,7 @@
         <v>306</v>
       </c>
       <c r="F119">
-        <v>500</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -4053,7 +4059,7 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C120" t="s">
         <v>113</v>
@@ -4065,7 +4071,7 @@
         <v>306</v>
       </c>
       <c r="F120">
-        <v>1000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -4073,7 +4079,7 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C121" t="s">
         <v>113</v>
@@ -4085,7 +4091,7 @@
         <v>306</v>
       </c>
       <c r="F121">
-        <v>1500</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -4093,7 +4099,7 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C122" t="s">
         <v>113</v>
@@ -4105,7 +4111,7 @@
         <v>306</v>
       </c>
       <c r="F122">
-        <v>2000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -4113,10 +4119,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C123" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D123" t="s">
         <v>192</v>
@@ -4133,10 +4139,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C124" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D124" t="s">
         <v>193</v>
@@ -4153,10 +4159,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C125" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D125" t="s">
         <v>194</v>
@@ -4173,10 +4179,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C126" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D126" t="s">
         <v>195</v>
@@ -4193,10 +4199,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C127" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D127" t="s">
         <v>101</v>
@@ -4213,10 +4219,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C128" t="s">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D128" t="s">
         <v>102</v>
@@ -4233,10 +4239,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C129" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D129" t="s">
         <v>100</v>
@@ -4253,10 +4259,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C130" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D130" t="s">
         <v>196</v>
@@ -4273,10 +4279,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C131" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D131" t="s">
         <v>103</v>
@@ -4293,10 +4299,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C132" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D132" t="s">
         <v>104</v>
@@ -4313,10 +4319,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C133" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D133" t="s">
         <v>105</v>
@@ -4333,10 +4339,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C134" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D134" t="s">
         <v>106</v>
@@ -4353,10 +4359,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C135" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D135" t="s">
         <v>120</v>
@@ -4373,10 +4379,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C136" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D136" t="s">
         <v>121</v>
@@ -4393,10 +4399,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C137" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D137" t="s">
         <v>122</v>
@@ -4413,10 +4419,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C138" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D138" t="s">
         <v>123</v>
@@ -4433,10 +4439,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C139" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D139" t="s">
         <v>124</v>
@@ -4453,10 +4459,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C140" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D140" t="s">
         <v>125</v>
@@ -4473,10 +4479,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C141" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D141" t="s">
         <v>126</v>
@@ -4493,10 +4499,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C142" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D142" t="s">
         <v>127</v>
@@ -4513,10 +4519,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C143" t="s">
-        <v>452</v>
+        <v>460</v>
       </c>
       <c r="D143" t="s">
         <v>128</v>
@@ -4533,7 +4539,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C144" t="s">
         <v>129</v>
@@ -4553,7 +4559,7 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C145" t="s">
         <v>129</v>
@@ -4573,7 +4579,7 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C146" t="s">
         <v>129</v>
@@ -4593,7 +4599,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C147" t="s">
         <v>133</v>
@@ -4613,7 +4619,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C148" t="s">
         <v>133</v>
@@ -4633,7 +4639,7 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C149" t="s">
         <v>133</v>
@@ -4653,7 +4659,7 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C150" t="s">
         <v>133</v>
@@ -4673,7 +4679,7 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C151" t="s">
         <v>133</v>
@@ -4693,7 +4699,7 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C152" t="s">
         <v>133</v>
@@ -4713,7 +4719,7 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C153" t="s">
         <v>133</v>
@@ -4733,7 +4739,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C154" t="s">
         <v>133</v>
@@ -4753,7 +4759,7 @@
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C155" t="s">
         <v>133</v>
@@ -4773,7 +4779,7 @@
         <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C156" t="s">
         <v>133</v>
@@ -4793,7 +4799,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C157" t="s">
         <v>133</v>
@@ -4813,7 +4819,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C158" t="s">
         <v>144</v>
@@ -4833,7 +4839,7 @@
         <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C159" t="s">
         <v>144</v>
@@ -4853,7 +4859,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C160" t="s">
         <v>144</v>
@@ -4873,7 +4879,7 @@
         <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C161" t="s">
         <v>144</v>
@@ -4893,7 +4899,7 @@
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C162" t="s">
         <v>144</v>
@@ -4913,7 +4919,7 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C163" t="s">
         <v>144</v>
@@ -4933,7 +4939,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C164" t="s">
         <v>75</v>
@@ -4953,7 +4959,7 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C165" t="s">
         <v>75</v>
@@ -4973,7 +4979,7 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C166" t="s">
         <v>75</v>
@@ -4993,7 +4999,7 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C167" t="s">
         <v>75</v>
@@ -5013,7 +5019,7 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C168" t="s">
         <v>75</v>
@@ -5033,7 +5039,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C169" t="s">
         <v>75</v>
@@ -5053,7 +5059,7 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C170" t="s">
         <v>75</v>
@@ -5073,7 +5079,7 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C171" t="s">
         <v>75</v>
@@ -5093,7 +5099,7 @@
         <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C172" t="s">
         <v>75</v>
@@ -5113,7 +5119,7 @@
         <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C173" t="s">
         <v>75</v>
@@ -5133,7 +5139,7 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C174" t="s">
         <v>75</v>
@@ -5153,7 +5159,7 @@
         <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C175" t="s">
         <v>75</v>
@@ -5173,7 +5179,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C176" t="s">
         <v>75</v>
@@ -5193,7 +5199,7 @@
         <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C177" t="s">
         <v>75</v>
@@ -5213,7 +5219,7 @@
         <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C178" t="s">
         <v>75</v>
@@ -5233,7 +5239,7 @@
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C179" t="s">
         <v>75</v>
@@ -5253,7 +5259,7 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C180" t="s">
         <v>75</v>
@@ -5273,7 +5279,7 @@
         <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C181" t="s">
         <v>165</v>
@@ -5293,7 +5299,7 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C182" t="s">
         <v>165</v>
@@ -5313,7 +5319,7 @@
         <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C183" t="s">
         <v>165</v>
@@ -5333,7 +5339,7 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C184" t="s">
         <v>78</v>
@@ -5353,7 +5359,7 @@
         <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C185" t="s">
         <v>78</v>
@@ -5373,7 +5379,7 @@
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C186" t="s">
         <v>78</v>
@@ -5393,7 +5399,7 @@
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C187" t="s">
         <v>78</v>
@@ -5413,7 +5419,7 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C188" t="s">
         <v>78</v>
@@ -5433,7 +5439,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C189" t="s">
         <v>78</v>
@@ -5453,7 +5459,7 @@
         <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C190" t="s">
         <v>78</v>
@@ -5473,7 +5479,7 @@
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C191" t="s">
         <v>78</v>
@@ -5493,7 +5499,7 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C192" t="s">
         <v>112</v>
@@ -5513,7 +5519,7 @@
         <v>17</v>
       </c>
       <c r="B193" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C193" t="s">
         <v>112</v>
@@ -5533,7 +5539,7 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C194" t="s">
         <v>112</v>
@@ -5553,7 +5559,7 @@
         <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C195" t="s">
         <v>112</v>
@@ -5573,7 +5579,7 @@
         <v>17</v>
       </c>
       <c r="B196" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C196" t="s">
         <v>112</v>
@@ -5593,7 +5599,7 @@
         <v>17</v>
       </c>
       <c r="B197" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C197" t="s">
         <v>112</v>
@@ -5624,9 +5630,7 @@
       <c r="E198" t="s">
         <v>339</v>
       </c>
-      <c r="F198">
-        <v>1</v>
-      </c>
+      <c r="F198"/>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
@@ -5645,7 +5649,7 @@
         <v>339</v>
       </c>
       <c r="F199">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -5665,7 +5669,7 @@
         <v>306</v>
       </c>
       <c r="F200">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -5685,7 +5689,7 @@
         <v>306</v>
       </c>
       <c r="F201">
-        <v>1</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -5705,7 +5709,7 @@
         <v>306</v>
       </c>
       <c r="F202">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -5725,7 +5729,7 @@
         <v>340</v>
       </c>
       <c r="F203">
-        <v>1</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -5745,7 +5749,7 @@
         <v>306</v>
       </c>
       <c r="F204">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -5765,7 +5769,7 @@
         <v>306</v>
       </c>
       <c r="F205">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -5785,7 +5789,7 @@
         <v>306</v>
       </c>
       <c r="F206">
-        <v>1</v>
+        <v>2900</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -5805,7 +5809,7 @@
         <v>341</v>
       </c>
       <c r="F207">
-        <v>1</v>
+        <v>5300</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -5825,7 +5829,7 @@
         <v>342</v>
       </c>
       <c r="F208">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -5845,7 +5849,7 @@
         <v>343</v>
       </c>
       <c r="F209">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -5865,7 +5869,7 @@
         <v>344</v>
       </c>
       <c r="F210">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -5885,7 +5889,7 @@
         <v>306</v>
       </c>
       <c r="F211">
-        <v>1</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -5905,7 +5909,7 @@
         <v>306</v>
       </c>
       <c r="F212">
-        <v>1</v>
+        <v>6300</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -5925,7 +5929,7 @@
         <v>306</v>
       </c>
       <c r="F213">
-        <v>1</v>
+        <v>5800</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -5945,7 +5949,7 @@
         <v>345</v>
       </c>
       <c r="F214">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -5965,7 +5969,7 @@
         <v>346</v>
       </c>
       <c r="F215">
-        <v>1</v>
+        <v>5100</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -5985,7 +5989,7 @@
         <v>347</v>
       </c>
       <c r="F216">
-        <v>1</v>
+        <v>4800</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -6005,7 +6009,7 @@
         <v>348</v>
       </c>
       <c r="F217">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -6016,7 +6020,7 @@
         <v>107</v>
       </c>
       <c r="C218" t="s">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D218" t="s">
         <v>281</v>
@@ -6025,7 +6029,7 @@
         <v>354</v>
       </c>
       <c r="F218">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -6045,7 +6049,7 @@
         <v>306</v>
       </c>
       <c r="F219">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -6065,7 +6069,7 @@
         <v>306</v>
       </c>
       <c r="F220">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -6085,7 +6089,7 @@
         <v>283</v>
       </c>
       <c r="F221">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -6105,7 +6109,7 @@
         <v>349</v>
       </c>
       <c r="F222">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -6125,7 +6129,7 @@
         <v>350</v>
       </c>
       <c r="F223">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -6145,7 +6149,7 @@
         <v>284</v>
       </c>
       <c r="F224">
-        <v>1</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -6165,7 +6169,7 @@
         <v>306</v>
       </c>
       <c r="F225">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -6185,7 +6189,7 @@
         <v>306</v>
       </c>
       <c r="F226">
-        <v>1</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -6205,7 +6209,7 @@
         <v>306</v>
       </c>
       <c r="F227">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -6225,7 +6229,7 @@
         <v>306</v>
       </c>
       <c r="F228">
-        <v>1</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -6245,7 +6249,7 @@
         <v>286</v>
       </c>
       <c r="F229">
-        <v>1</v>
+        <v>8500</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -6265,7 +6269,7 @@
         <v>289</v>
       </c>
       <c r="F230">
-        <v>1</v>
+        <v>6500</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -6285,7 +6289,7 @@
         <v>306</v>
       </c>
       <c r="F231">
-        <v>1</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -6305,7 +6309,7 @@
         <v>306</v>
       </c>
       <c r="F232">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -6325,7 +6329,7 @@
         <v>306</v>
       </c>
       <c r="F233">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -6345,7 +6349,7 @@
         <v>306</v>
       </c>
       <c r="F234">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -6365,7 +6369,7 @@
         <v>306</v>
       </c>
       <c r="F235">
-        <v>1</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -6385,7 +6389,7 @@
         <v>306</v>
       </c>
       <c r="F236">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -6405,7 +6409,7 @@
         <v>306</v>
       </c>
       <c r="F237">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -6425,7 +6429,7 @@
         <v>306</v>
       </c>
       <c r="F238">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -6445,7 +6449,7 @@
         <v>306</v>
       </c>
       <c r="F239">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -6465,7 +6469,7 @@
         <v>306</v>
       </c>
       <c r="F240">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -6485,7 +6489,7 @@
         <v>306</v>
       </c>
       <c r="F241">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -6505,7 +6509,7 @@
         <v>306</v>
       </c>
       <c r="F242">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -6525,7 +6529,7 @@
         <v>306</v>
       </c>
       <c r="F243">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -6545,7 +6549,7 @@
         <v>306</v>
       </c>
       <c r="F244">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -6565,7 +6569,7 @@
         <v>306</v>
       </c>
       <c r="F245">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -6585,7 +6589,7 @@
         <v>306</v>
       </c>
       <c r="F246">
-        <v>1</v>
+        <v>7500</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -6605,7 +6609,7 @@
         <v>306</v>
       </c>
       <c r="F247">
-        <v>1</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -6625,7 +6629,7 @@
         <v>306</v>
       </c>
       <c r="F248">
-        <v>1</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -6645,7 +6649,7 @@
         <v>306</v>
       </c>
       <c r="F249">
-        <v>1</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -6665,7 +6669,7 @@
         <v>306</v>
       </c>
       <c r="F250">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -6685,7 +6689,7 @@
         <v>306</v>
       </c>
       <c r="F251">
-        <v>1</v>
+        <v>3300</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -6705,7 +6709,7 @@
         <v>306</v>
       </c>
       <c r="F252">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -6725,7 +6729,7 @@
         <v>351</v>
       </c>
       <c r="F253">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -6745,7 +6749,7 @@
         <v>306</v>
       </c>
       <c r="F254">
-        <v>1</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -6765,7 +6769,7 @@
         <v>306</v>
       </c>
       <c r="F255">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -6785,7 +6789,7 @@
         <v>352</v>
       </c>
       <c r="F256">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -6805,7 +6809,7 @@
         <v>353</v>
       </c>
       <c r="F257">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -6825,7 +6829,7 @@
         <v>306</v>
       </c>
       <c r="F258">
-        <v>1</v>
+        <v>750</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -6845,7 +6849,7 @@
         <v>306</v>
       </c>
       <c r="F259">
-        <v>1</v>
+        <v>750</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -6865,7 +6869,7 @@
         <v>306</v>
       </c>
       <c r="F260">
-        <v>1</v>
+        <v>600</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -6885,7 +6889,7 @@
         <v>306</v>
       </c>
       <c r="F261">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -6905,7 +6909,7 @@
         <v>306</v>
       </c>
       <c r="F262">
-        <v>1</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -6925,7 +6929,7 @@
         <v>306</v>
       </c>
       <c r="F263">
-        <v>1</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -6945,7 +6949,7 @@
         <v>290</v>
       </c>
       <c r="F264">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -6965,7 +6969,7 @@
         <v>306</v>
       </c>
       <c r="F265">
-        <v>1</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -6985,7 +6989,7 @@
         <v>306</v>
       </c>
       <c r="F266">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -7005,7 +7009,7 @@
         <v>306</v>
       </c>
       <c r="F267">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -7025,7 +7029,7 @@
         <v>306</v>
       </c>
       <c r="F268">
-        <v>1</v>
+        <v>6000</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -7045,7 +7049,7 @@
         <v>306</v>
       </c>
       <c r="F269">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -7065,7 +7069,7 @@
         <v>306</v>
       </c>
       <c r="F270">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -7085,7 +7089,7 @@
         <v>306</v>
       </c>
       <c r="F271">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -7105,7 +7109,7 @@
         <v>292</v>
       </c>
       <c r="F272">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -7125,7 +7129,7 @@
         <v>306</v>
       </c>
       <c r="F273">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -7145,7 +7149,7 @@
         <v>306</v>
       </c>
       <c r="F274">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -7165,7 +7169,7 @@
         <v>306</v>
       </c>
       <c r="F275">
-        <v>1</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -7185,7 +7189,7 @@
         <v>306</v>
       </c>
       <c r="F276">
-        <v>1</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -7205,7 +7209,7 @@
         <v>306</v>
       </c>
       <c r="F277">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -7225,7 +7229,7 @@
         <v>306</v>
       </c>
       <c r="F278">
-        <v>1</v>
+        <v>4000</v>
       </c>
     </row>
   </sheetData>
@@ -7250,35 +7254,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B3" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="C3" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
     </row>
   </sheetData>

--- a/menu_data.xlsx
+++ b/menu_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yago\Documents\PANCHO\menu_digital\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A909EBA9-820F-4597-AE94-E552F646EE19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6637DB68-0D0D-4C94-9EE7-18243D67A8C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="462">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1360" uniqueCount="460">
   <si>
     <t>Local</t>
   </si>
@@ -1392,9 +1392,6 @@
     <t>Tragos c/Gin</t>
   </si>
   <si>
-    <t>Tragos</t>
-  </si>
-  <si>
     <t>Descripcion</t>
   </si>
   <si>
@@ -1413,13 +1410,10 @@
     <t>Bar</t>
   </si>
   <si>
-    <t>Tragos con Gin</t>
-  </si>
-  <si>
-    <t>Tragos de Autor</t>
-  </si>
-  <si>
     <t>Jugos y Licuados</t>
+  </si>
+  <si>
+    <t>Tragos Autor</t>
   </si>
 </sst>
 </file>
@@ -1790,8 +1784,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F278"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+    <sheetView tabSelected="1" topLeftCell="A251" workbookViewId="0">
+      <selection activeCell="D279" sqref="D279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3719,7 +3713,7 @@
         <v>17</v>
       </c>
       <c r="B103" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C103" t="s">
         <v>89</v>
@@ -3739,7 +3733,7 @@
         <v>17</v>
       </c>
       <c r="B104" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C104" t="s">
         <v>89</v>
@@ -3759,7 +3753,7 @@
         <v>17</v>
       </c>
       <c r="B105" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C105" t="s">
         <v>89</v>
@@ -3779,7 +3773,7 @@
         <v>17</v>
       </c>
       <c r="B106" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C106" t="s">
         <v>89</v>
@@ -3799,7 +3793,7 @@
         <v>17</v>
       </c>
       <c r="B107" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C107" t="s">
         <v>89</v>
@@ -3819,7 +3813,7 @@
         <v>17</v>
       </c>
       <c r="B108" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C108" t="s">
         <v>89</v>
@@ -3839,7 +3833,7 @@
         <v>17</v>
       </c>
       <c r="B109" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C109" t="s">
         <v>89</v>
@@ -3859,7 +3853,7 @@
         <v>17</v>
       </c>
       <c r="B110" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C110" t="s">
         <v>89</v>
@@ -3879,7 +3873,7 @@
         <v>17</v>
       </c>
       <c r="B111" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C111" t="s">
         <v>89</v>
@@ -3899,7 +3893,7 @@
         <v>17</v>
       </c>
       <c r="B112" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C112" t="s">
         <v>89</v>
@@ -3919,7 +3913,7 @@
         <v>17</v>
       </c>
       <c r="B113" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C113" t="s">
         <v>89</v>
@@ -3939,7 +3933,7 @@
         <v>17</v>
       </c>
       <c r="B114" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C114" t="s">
         <v>89</v>
@@ -3959,7 +3953,7 @@
         <v>17</v>
       </c>
       <c r="B115" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C115" t="s">
         <v>113</v>
@@ -3979,7 +3973,7 @@
         <v>17</v>
       </c>
       <c r="B116" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C116" t="s">
         <v>113</v>
@@ -3999,7 +3993,7 @@
         <v>17</v>
       </c>
       <c r="B117" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C117" t="s">
         <v>113</v>
@@ -4019,7 +4013,7 @@
         <v>17</v>
       </c>
       <c r="B118" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C118" t="s">
         <v>113</v>
@@ -4039,7 +4033,7 @@
         <v>17</v>
       </c>
       <c r="B119" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C119" t="s">
         <v>113</v>
@@ -4059,7 +4053,7 @@
         <v>17</v>
       </c>
       <c r="B120" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C120" t="s">
         <v>113</v>
@@ -4079,7 +4073,7 @@
         <v>17</v>
       </c>
       <c r="B121" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C121" t="s">
         <v>113</v>
@@ -4099,7 +4093,7 @@
         <v>17</v>
       </c>
       <c r="B122" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C122" t="s">
         <v>113</v>
@@ -4119,10 +4113,10 @@
         <v>17</v>
       </c>
       <c r="B123" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C123" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D123" t="s">
         <v>192</v>
@@ -4139,10 +4133,10 @@
         <v>17</v>
       </c>
       <c r="B124" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C124" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D124" t="s">
         <v>193</v>
@@ -4159,10 +4153,10 @@
         <v>17</v>
       </c>
       <c r="B125" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C125" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D125" t="s">
         <v>194</v>
@@ -4179,10 +4173,10 @@
         <v>17</v>
       </c>
       <c r="B126" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C126" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D126" t="s">
         <v>195</v>
@@ -4199,10 +4193,10 @@
         <v>17</v>
       </c>
       <c r="B127" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C127" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D127" t="s">
         <v>101</v>
@@ -4219,10 +4213,10 @@
         <v>17</v>
       </c>
       <c r="B128" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C128" t="s">
-        <v>459</v>
+        <v>451</v>
       </c>
       <c r="D128" t="s">
         <v>102</v>
@@ -4239,10 +4233,10 @@
         <v>17</v>
       </c>
       <c r="B129" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C129" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D129" t="s">
         <v>100</v>
@@ -4259,10 +4253,10 @@
         <v>17</v>
       </c>
       <c r="B130" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C130" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D130" t="s">
         <v>196</v>
@@ -4279,10 +4273,10 @@
         <v>17</v>
       </c>
       <c r="B131" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C131" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D131" t="s">
         <v>103</v>
@@ -4299,10 +4293,10 @@
         <v>17</v>
       </c>
       <c r="B132" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C132" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D132" t="s">
         <v>104</v>
@@ -4319,10 +4313,10 @@
         <v>17</v>
       </c>
       <c r="B133" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C133" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D133" t="s">
         <v>105</v>
@@ -4339,10 +4333,10 @@
         <v>17</v>
       </c>
       <c r="B134" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C134" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D134" t="s">
         <v>106</v>
@@ -4359,10 +4353,10 @@
         <v>17</v>
       </c>
       <c r="B135" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C135" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D135" t="s">
         <v>120</v>
@@ -4379,10 +4373,10 @@
         <v>17</v>
       </c>
       <c r="B136" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C136" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D136" t="s">
         <v>121</v>
@@ -4399,10 +4393,10 @@
         <v>17</v>
       </c>
       <c r="B137" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C137" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D137" t="s">
         <v>122</v>
@@ -4419,10 +4413,10 @@
         <v>17</v>
       </c>
       <c r="B138" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C138" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D138" t="s">
         <v>123</v>
@@ -4439,10 +4433,10 @@
         <v>17</v>
       </c>
       <c r="B139" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C139" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D139" t="s">
         <v>124</v>
@@ -4459,10 +4453,10 @@
         <v>17</v>
       </c>
       <c r="B140" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C140" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D140" t="s">
         <v>125</v>
@@ -4479,10 +4473,10 @@
         <v>17</v>
       </c>
       <c r="B141" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C141" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D141" t="s">
         <v>126</v>
@@ -4499,10 +4493,10 @@
         <v>17</v>
       </c>
       <c r="B142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C142" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D142" t="s">
         <v>127</v>
@@ -4519,10 +4513,10 @@
         <v>17</v>
       </c>
       <c r="B143" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C143" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D143" t="s">
         <v>128</v>
@@ -4539,7 +4533,7 @@
         <v>17</v>
       </c>
       <c r="B144" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C144" t="s">
         <v>129</v>
@@ -4559,7 +4553,7 @@
         <v>17</v>
       </c>
       <c r="B145" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C145" t="s">
         <v>129</v>
@@ -4579,7 +4573,7 @@
         <v>17</v>
       </c>
       <c r="B146" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C146" t="s">
         <v>129</v>
@@ -4599,7 +4593,7 @@
         <v>17</v>
       </c>
       <c r="B147" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C147" t="s">
         <v>133</v>
@@ -4619,7 +4613,7 @@
         <v>17</v>
       </c>
       <c r="B148" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C148" t="s">
         <v>133</v>
@@ -4639,7 +4633,7 @@
         <v>17</v>
       </c>
       <c r="B149" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C149" t="s">
         <v>133</v>
@@ -4659,7 +4653,7 @@
         <v>17</v>
       </c>
       <c r="B150" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C150" t="s">
         <v>133</v>
@@ -4679,7 +4673,7 @@
         <v>17</v>
       </c>
       <c r="B151" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C151" t="s">
         <v>133</v>
@@ -4699,7 +4693,7 @@
         <v>17</v>
       </c>
       <c r="B152" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C152" t="s">
         <v>133</v>
@@ -4719,7 +4713,7 @@
         <v>17</v>
       </c>
       <c r="B153" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C153" t="s">
         <v>133</v>
@@ -4739,7 +4733,7 @@
         <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C154" t="s">
         <v>133</v>
@@ -4759,7 +4753,7 @@
         <v>17</v>
       </c>
       <c r="B155" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C155" t="s">
         <v>133</v>
@@ -4779,7 +4773,7 @@
         <v>17</v>
       </c>
       <c r="B156" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C156" t="s">
         <v>133</v>
@@ -4799,7 +4793,7 @@
         <v>17</v>
       </c>
       <c r="B157" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C157" t="s">
         <v>133</v>
@@ -4819,7 +4813,7 @@
         <v>17</v>
       </c>
       <c r="B158" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C158" t="s">
         <v>144</v>
@@ -4839,7 +4833,7 @@
         <v>17</v>
       </c>
       <c r="B159" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C159" t="s">
         <v>144</v>
@@ -4859,7 +4853,7 @@
         <v>17</v>
       </c>
       <c r="B160" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C160" t="s">
         <v>144</v>
@@ -4879,7 +4873,7 @@
         <v>17</v>
       </c>
       <c r="B161" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C161" t="s">
         <v>144</v>
@@ -4899,7 +4893,7 @@
         <v>17</v>
       </c>
       <c r="B162" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C162" t="s">
         <v>144</v>
@@ -4919,7 +4913,7 @@
         <v>17</v>
       </c>
       <c r="B163" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C163" t="s">
         <v>144</v>
@@ -4939,7 +4933,7 @@
         <v>17</v>
       </c>
       <c r="B164" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C164" t="s">
         <v>75</v>
@@ -4959,7 +4953,7 @@
         <v>17</v>
       </c>
       <c r="B165" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C165" t="s">
         <v>75</v>
@@ -4979,7 +4973,7 @@
         <v>17</v>
       </c>
       <c r="B166" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C166" t="s">
         <v>75</v>
@@ -4999,7 +4993,7 @@
         <v>17</v>
       </c>
       <c r="B167" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C167" t="s">
         <v>75</v>
@@ -5019,7 +5013,7 @@
         <v>17</v>
       </c>
       <c r="B168" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C168" t="s">
         <v>75</v>
@@ -5039,7 +5033,7 @@
         <v>17</v>
       </c>
       <c r="B169" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C169" t="s">
         <v>75</v>
@@ -5059,7 +5053,7 @@
         <v>17</v>
       </c>
       <c r="B170" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C170" t="s">
         <v>75</v>
@@ -5079,7 +5073,7 @@
         <v>17</v>
       </c>
       <c r="B171" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C171" t="s">
         <v>75</v>
@@ -5099,7 +5093,7 @@
         <v>17</v>
       </c>
       <c r="B172" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C172" t="s">
         <v>75</v>
@@ -5119,7 +5113,7 @@
         <v>17</v>
       </c>
       <c r="B173" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C173" t="s">
         <v>75</v>
@@ -5139,7 +5133,7 @@
         <v>17</v>
       </c>
       <c r="B174" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C174" t="s">
         <v>75</v>
@@ -5159,7 +5153,7 @@
         <v>17</v>
       </c>
       <c r="B175" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C175" t="s">
         <v>75</v>
@@ -5179,7 +5173,7 @@
         <v>17</v>
       </c>
       <c r="B176" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C176" t="s">
         <v>75</v>
@@ -5199,7 +5193,7 @@
         <v>17</v>
       </c>
       <c r="B177" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C177" t="s">
         <v>75</v>
@@ -5219,7 +5213,7 @@
         <v>17</v>
       </c>
       <c r="B178" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C178" t="s">
         <v>75</v>
@@ -5239,7 +5233,7 @@
         <v>17</v>
       </c>
       <c r="B179" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C179" t="s">
         <v>75</v>
@@ -5259,7 +5253,7 @@
         <v>17</v>
       </c>
       <c r="B180" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C180" t="s">
         <v>75</v>
@@ -5279,7 +5273,7 @@
         <v>17</v>
       </c>
       <c r="B181" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C181" t="s">
         <v>165</v>
@@ -5299,7 +5293,7 @@
         <v>17</v>
       </c>
       <c r="B182" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C182" t="s">
         <v>165</v>
@@ -5319,7 +5313,7 @@
         <v>17</v>
       </c>
       <c r="B183" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C183" t="s">
         <v>165</v>
@@ -5339,7 +5333,7 @@
         <v>17</v>
       </c>
       <c r="B184" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C184" t="s">
         <v>78</v>
@@ -5359,7 +5353,7 @@
         <v>17</v>
       </c>
       <c r="B185" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C185" t="s">
         <v>78</v>
@@ -5379,7 +5373,7 @@
         <v>17</v>
       </c>
       <c r="B186" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C186" t="s">
         <v>78</v>
@@ -5399,7 +5393,7 @@
         <v>17</v>
       </c>
       <c r="B187" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C187" t="s">
         <v>78</v>
@@ -5419,7 +5413,7 @@
         <v>17</v>
       </c>
       <c r="B188" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C188" t="s">
         <v>78</v>
@@ -5439,7 +5433,7 @@
         <v>17</v>
       </c>
       <c r="B189" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C189" t="s">
         <v>78</v>
@@ -5459,7 +5453,7 @@
         <v>17</v>
       </c>
       <c r="B190" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C190" t="s">
         <v>78</v>
@@ -5479,7 +5473,7 @@
         <v>17</v>
       </c>
       <c r="B191" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C191" t="s">
         <v>78</v>
@@ -5499,7 +5493,7 @@
         <v>17</v>
       </c>
       <c r="B192" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C192" t="s">
         <v>112</v>
@@ -5519,7 +5513,7 @@
         <v>17</v>
       </c>
       <c r="B193" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C193" t="s">
         <v>112</v>
@@ -5539,7 +5533,7 @@
         <v>17</v>
       </c>
       <c r="B194" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C194" t="s">
         <v>112</v>
@@ -5559,7 +5553,7 @@
         <v>17</v>
       </c>
       <c r="B195" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C195" t="s">
         <v>112</v>
@@ -5579,7 +5573,7 @@
         <v>17</v>
       </c>
       <c r="B196" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C196" t="s">
         <v>112</v>
@@ -5599,7 +5593,7 @@
         <v>17</v>
       </c>
       <c r="B197" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C197" t="s">
         <v>112</v>
@@ -6020,7 +6014,7 @@
         <v>107</v>
       </c>
       <c r="C218" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="D218" t="s">
         <v>281</v>
@@ -7242,7 +7236,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7254,35 +7248,35 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B1" t="s">
         <v>454</v>
       </c>
-      <c r="B1" t="s">
-        <v>455</v>
-      </c>
       <c r="C1" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B2" t="s">
         <v>113</v>
       </c>
       <c r="C2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="B3" t="s">
         <v>451</v>
       </c>
       <c r="C3" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
   </sheetData>
